--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.825549</v>
+        <v>1.103903333333333</v>
       </c>
       <c r="H2">
-        <v>5.476647</v>
+        <v>3.31171</v>
       </c>
       <c r="I2">
-        <v>0.04696949406168958</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="J2">
-        <v>0.04696949406168957</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.42119933333333</v>
+        <v>19.92674333333333</v>
       </c>
       <c r="N2">
-        <v>73.263598</v>
+        <v>59.78023</v>
       </c>
       <c r="O2">
-        <v>0.4086816635579248</v>
+        <v>0.3447897148135736</v>
       </c>
       <c r="P2">
-        <v>0.4086816635579248</v>
+        <v>0.3447897148135735</v>
       </c>
       <c r="Q2">
-        <v>44.58209602176733</v>
+        <v>21.99719838814445</v>
       </c>
       <c r="R2">
-        <v>401.238864195906</v>
+        <v>197.9747854933</v>
       </c>
       <c r="S2">
-        <v>0.01919557096960537</v>
+        <v>0.008251241952764402</v>
       </c>
       <c r="T2">
-        <v>0.01919557096960537</v>
+        <v>0.008251241952764402</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.825549</v>
+        <v>1.103903333333333</v>
       </c>
       <c r="H3">
-        <v>5.476647</v>
+        <v>3.31171</v>
       </c>
       <c r="I3">
-        <v>0.04696949406168958</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="J3">
-        <v>0.04696949406168957</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>100.44387</v>
       </c>
       <c r="O3">
-        <v>0.5602996441124273</v>
+        <v>0.5793221821339875</v>
       </c>
       <c r="P3">
-        <v>0.5602996441124273</v>
+        <v>0.5793221821339873</v>
       </c>
       <c r="Q3">
-        <v>61.12173547821</v>
+        <v>36.96010763530001</v>
       </c>
       <c r="R3">
-        <v>550.09561930389</v>
+        <v>332.6409687177</v>
       </c>
       <c r="S3">
-        <v>0.02631699080690544</v>
+        <v>0.01386389236110356</v>
       </c>
       <c r="T3">
-        <v>0.02631699080690543</v>
+        <v>0.01386389236110356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.825549</v>
+        <v>1.103903333333333</v>
       </c>
       <c r="H4">
-        <v>5.476647</v>
+        <v>3.31171</v>
       </c>
       <c r="I4">
-        <v>0.04696949406168958</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="J4">
-        <v>0.04696949406168957</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.853554333333333</v>
+        <v>4.385869666666667</v>
       </c>
       <c r="N4">
-        <v>5.560663</v>
+        <v>13.157609</v>
       </c>
       <c r="O4">
-        <v>0.03101869232964781</v>
+        <v>0.07588810305243907</v>
       </c>
       <c r="P4">
-        <v>0.03101869232964781</v>
+        <v>0.07588810305243905</v>
       </c>
       <c r="Q4">
-        <v>3.383754259662333</v>
+        <v>4.84157614459889</v>
       </c>
       <c r="R4">
-        <v>30.453788336961</v>
+        <v>43.57418530139</v>
       </c>
       <c r="S4">
-        <v>0.001456932285178769</v>
+        <v>0.001816095645314019</v>
       </c>
       <c r="T4">
-        <v>0.001456932285178769</v>
+        <v>0.001816095645314019</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>23.57737633333333</v>
       </c>
       <c r="H5">
-        <v>70.732129</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I5">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="J5">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.42119933333333</v>
+        <v>19.92674333333333</v>
       </c>
       <c r="N5">
-        <v>73.263598</v>
+        <v>59.78023</v>
       </c>
       <c r="O5">
-        <v>0.4086816635579248</v>
+        <v>0.3447897148135736</v>
       </c>
       <c r="P5">
-        <v>0.4086816635579248</v>
+        <v>0.3447897148135735</v>
       </c>
       <c r="Q5">
-        <v>575.7878071933492</v>
+        <v>469.8203266677411</v>
       </c>
       <c r="R5">
-        <v>5182.090264740142</v>
+        <v>4228.382940009669</v>
       </c>
       <c r="S5">
-        <v>0.2479151207026456</v>
+        <v>0.1762315873712202</v>
       </c>
       <c r="T5">
-        <v>0.2479151207026456</v>
+        <v>0.1762315873712201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>23.57737633333333</v>
       </c>
       <c r="H6">
-        <v>70.732129</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I6">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="J6">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>100.44387</v>
       </c>
       <c r="O6">
-        <v>0.5602996441124273</v>
+        <v>0.5793221821339875</v>
       </c>
       <c r="P6">
-        <v>0.5602996441124273</v>
+        <v>0.5793221821339873</v>
       </c>
       <c r="Q6">
-        <v>789.4009744554701</v>
+        <v>789.40097445547</v>
       </c>
       <c r="R6">
-        <v>7104.60877009923</v>
+        <v>7104.608770099229</v>
       </c>
       <c r="S6">
-        <v>0.3398898611953353</v>
+        <v>0.2961076371203069</v>
       </c>
       <c r="T6">
-        <v>0.3398898611953353</v>
+        <v>0.2961076371203068</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>23.57737633333333</v>
       </c>
       <c r="H7">
-        <v>70.732129</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I7">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="J7">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.853554333333333</v>
+        <v>4.385869666666667</v>
       </c>
       <c r="N7">
-        <v>5.560663</v>
+        <v>13.157609</v>
       </c>
       <c r="O7">
-        <v>0.03101869232964781</v>
+        <v>0.07588810305243907</v>
       </c>
       <c r="P7">
-        <v>0.03101869232964781</v>
+        <v>0.07588810305243905</v>
       </c>
       <c r="Q7">
-        <v>43.70194807128077</v>
+        <v>103.4072996799512</v>
       </c>
       <c r="R7">
-        <v>393.317532641527</v>
+        <v>930.6656971195608</v>
       </c>
       <c r="S7">
-        <v>0.01881660847221475</v>
+        <v>0.03878851453197576</v>
       </c>
       <c r="T7">
-        <v>0.01881660847221475</v>
+        <v>0.03878851453197575</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.46376966666667</v>
+        <v>21.446869</v>
       </c>
       <c r="H8">
-        <v>40.391309</v>
+        <v>64.34060699999999</v>
       </c>
       <c r="I8">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173153</v>
       </c>
       <c r="J8">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.42119933333333</v>
+        <v>19.92674333333333</v>
       </c>
       <c r="N8">
-        <v>73.263598</v>
+        <v>59.78023</v>
       </c>
       <c r="O8">
-        <v>0.4086816635579248</v>
+        <v>0.3447897148135736</v>
       </c>
       <c r="P8">
-        <v>0.4086816635579248</v>
+        <v>0.3447897148135735</v>
       </c>
       <c r="Q8">
-        <v>328.8014028077536</v>
+        <v>427.3662538666233</v>
       </c>
       <c r="R8">
-        <v>2959.212625269782</v>
+        <v>3846.29628479961</v>
       </c>
       <c r="S8">
-        <v>0.1415709718856739</v>
+        <v>0.160306885489589</v>
       </c>
       <c r="T8">
-        <v>0.1415709718856739</v>
+        <v>0.160306885489589</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.46376966666667</v>
+        <v>21.446869</v>
       </c>
       <c r="H9">
-        <v>40.391309</v>
+        <v>64.34060699999999</v>
       </c>
       <c r="I9">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173153</v>
       </c>
       <c r="J9">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173154</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>100.44387</v>
       </c>
       <c r="O9">
-        <v>0.5602996441124273</v>
+        <v>0.5793221821339875</v>
       </c>
       <c r="P9">
-        <v>0.5602996441124273</v>
+        <v>0.5793221821339873</v>
       </c>
       <c r="Q9">
-        <v>450.78437670287</v>
+        <v>718.0688405810099</v>
       </c>
       <c r="R9">
-        <v>4057.05939032583</v>
+        <v>6462.619565229089</v>
       </c>
       <c r="S9">
-        <v>0.1940927921101865</v>
+        <v>0.2693506526525771</v>
       </c>
       <c r="T9">
-        <v>0.1940927921101865</v>
+        <v>0.269350652652577</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.46376966666667</v>
+        <v>21.446869</v>
       </c>
       <c r="H10">
-        <v>40.391309</v>
+        <v>64.34060699999999</v>
       </c>
       <c r="I10">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173153</v>
       </c>
       <c r="J10">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173154</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.853554333333333</v>
+        <v>4.385869666666667</v>
       </c>
       <c r="N10">
-        <v>5.560663</v>
+        <v>13.157609</v>
       </c>
       <c r="O10">
-        <v>0.03101869232964781</v>
+        <v>0.07588810305243907</v>
       </c>
       <c r="P10">
-        <v>0.03101869232964781</v>
+        <v>0.07588810305243905</v>
       </c>
       <c r="Q10">
-        <v>24.95582860865189</v>
+        <v>94.06317219207367</v>
       </c>
       <c r="R10">
-        <v>224.602457477867</v>
+        <v>846.5685497286629</v>
       </c>
       <c r="S10">
-        <v>0.0107451515722543</v>
+        <v>0.03528349287514929</v>
       </c>
       <c r="T10">
-        <v>0.0107451515722543</v>
+        <v>0.03528349287514929</v>
       </c>
     </row>
   </sheetData>
